--- a/academias/Programación - Estadisticos 20242.xlsx
+++ b/academias/Programación - Estadisticos 20242.xlsx
@@ -1337,25 +1337,25 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>92.3</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>7.7</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1369,25 +1369,25 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>92.3</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>7.7</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1404,25 +1404,25 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1439,25 +1439,25 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1474,25 +1474,25 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="J6">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1506,25 +1506,25 @@
         <v>87</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>12.6</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1541,25 +1541,25 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1576,25 +1576,25 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>94.3</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>5.7</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J9">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1608,25 +1608,25 @@
         <v>66</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F10">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J10">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1643,25 +1643,25 @@
         <v>32</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>21.9</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1678,25 +1678,25 @@
         <v>31</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>93.5</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>6.5</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J12">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1713,25 +1713,25 @@
         <v>35</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>2.9</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J13">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1745,25 +1745,25 @@
         <v>98</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F14">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>10.2</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J14">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1815,25 +1815,25 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1847,25 +1847,25 @@
         <v>40</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F17">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="H17" s="1">
-        <v>100</v>
+        <v>57.5</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J17">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1">
-        <v>100</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1949,25 +1949,25 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F20">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>100</v>
+        <v>17.4</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J20">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1984,25 +1984,25 @@
         <v>13</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>100</v>
+        <v>15.4</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2016,25 +2016,25 @@
         <v>36</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J22">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2045,25 +2045,25 @@
         <v>357</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="F23">
-        <v>357</v>
+        <v>70</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>100</v>
+        <v>19.6</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="J23">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="K23" s="1">
-        <v>100</v>
+        <v>11.2</v>
       </c>
     </row>
   </sheetData>
@@ -2146,7 +2146,7 @@
         <v>7.7</v>
       </c>
       <c r="I2" s="2">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>7.7</v>
       </c>
       <c r="I3" s="2">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2201,19 +2201,19 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>81.2</v>
+        <v>87.5</v>
       </c>
       <c r="H4" s="1">
-        <v>18.8</v>
+        <v>12.5</v>
       </c>
       <c r="I4" s="2">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>84.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="H5" s="1">
-        <v>15.6</v>
+        <v>12.5</v>
       </c>
       <c r="I5" s="2">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2271,19 +2271,19 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>73.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1">
-        <v>26.1</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2303,19 +2303,19 @@
         <v>87</v>
       </c>
       <c r="E7">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1">
-        <v>80.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>19.5</v>
+        <v>12.6</v>
       </c>
       <c r="I7" s="2">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2338,19 +2338,19 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>96.8</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2373,19 +2373,19 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>91.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="H9" s="1">
-        <v>8.6</v>
+        <v>5.7</v>
       </c>
       <c r="I9" s="2">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2405,19 +2405,19 @@
         <v>66</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>93.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="H10" s="1">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2440,19 +2440,19 @@
         <v>32</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
-        <v>75</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>25</v>
+        <v>21.9</v>
       </c>
       <c r="I11" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>2.9</v>
       </c>
       <c r="I13" s="2">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2542,19 +2542,19 @@
         <v>98</v>
       </c>
       <c r="E14">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
-        <v>88.8</v>
+        <v>89.8</v>
       </c>
       <c r="H14" s="1">
-        <v>11.2</v>
+        <v>10.2</v>
       </c>
       <c r="I14" s="2">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1">
-        <v>78.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>21.7</v>
+        <v>17.4</v>
       </c>
       <c r="I20" s="2">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>15.4</v>
       </c>
       <c r="I21" s="2">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2813,19 +2813,19 @@
         <v>36</v>
       </c>
       <c r="E22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" s="1">
-        <v>80.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="H22" s="1">
-        <v>19.4</v>
+        <v>16.7</v>
       </c>
       <c r="I22" s="2">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>357</v>
       </c>
       <c r="E23">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="F23">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G23" s="1">
-        <v>86.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>13.4</v>
+        <v>10.6</v>
       </c>
       <c r="I23" s="2">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="J23">
         <v>1</v>

--- a/academias/Programación - Estadisticos 20242.xlsx
+++ b/academias/Programación - Estadisticos 20242.xlsx
@@ -995,13 +995,13 @@
         <v>30.4</v>
       </c>
       <c r="I15" s="2">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1062,13 +1062,13 @@
         <v>17.5</v>
       </c>
       <c r="I17" s="2">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1263,10 +1263,10 @@
         <v>7.7</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1780,25 +1780,25 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J15">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1847,25 +1847,25 @@
         <v>40</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
-        <v>42.5</v>
+        <v>92.5</v>
       </c>
       <c r="H17" s="1">
-        <v>57.5</v>
+        <v>7.5</v>
       </c>
       <c r="I17" s="2">
-        <v>4.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J17">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>57.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1882,25 +1882,25 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>100</v>
+        <v>5.9</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1914,25 +1914,25 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>100</v>
+        <v>5.9</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2045,25 +2045,25 @@
         <v>357</v>
       </c>
       <c r="E23">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="F23">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1">
-        <v>80.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="H23" s="1">
-        <v>19.6</v>
+        <v>9.5</v>
       </c>
       <c r="I23" s="2">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="J23">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>11.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2577,25 +2577,25 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>69.59999999999999</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1">
-        <v>30.4</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2644,25 +2644,25 @@
         <v>40</v>
       </c>
       <c r="E17">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
-        <v>82.5</v>
+        <v>92.5</v>
       </c>
       <c r="H17" s="1">
-        <v>17.5</v>
+        <v>7.5</v>
       </c>
       <c r="I17" s="2">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2691,7 +2691,7 @@
         <v>5.9</v>
       </c>
       <c r="I18" s="2">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>5.9</v>
       </c>
       <c r="I19" s="2">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>357</v>
       </c>
       <c r="E23">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F23">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1">
-        <v>89.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="H23" s="1">
-        <v>10.6</v>
+        <v>9.5</v>
       </c>
       <c r="I23" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
